--- a/DLP woordenlijst.xlsx
+++ b/DLP woordenlijst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanp\Documents\Paradox Interactive\Crusader Kings III\mod\DLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6B5EFC-992B-4D49-A8D4-76296F177E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16054C38-3722-4524-9FBC-1B511D89BA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Engelse term</t>
   </si>
@@ -155,6 +155,18 @@
   </si>
   <si>
     <t>Hofhouding</t>
+  </si>
+  <si>
+    <t>Council</t>
+  </si>
+  <si>
+    <t>Hofraad</t>
+  </si>
+  <si>
+    <t>Intrigue</t>
+  </si>
+  <si>
+    <t>Complotten</t>
   </si>
 </sst>
 </file>
@@ -224,8 +236,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:C13" totalsRowShown="0">
-  <autoFilter ref="A1:C13" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:C15" totalsRowShown="0">
+  <autoFilter ref="A1:C15" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BEFD245A-2A28-400B-A9E5-FE2EBA62AFD7}" name="Engelse term"/>
     <tableColumn id="2" xr3:uid="{C7771ADF-0301-48C6-AC98-3DC03BE980CB}" name="Nederlandse term"/>
@@ -498,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,6 +636,22 @@
         <v>27</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DLP woordenlijst.xlsx
+++ b/DLP woordenlijst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanp\Documents\Paradox Interactive\Crusader Kings III\mod\DLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16054C38-3722-4524-9FBC-1B511D89BA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E68BEE7-78BA-4A6F-86C0-7721B939ADD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Engelse term</t>
   </si>
@@ -167,6 +167,63 @@
   </si>
   <si>
     <t>Complotten</t>
+  </si>
+  <si>
+    <t>Stewardship</t>
+  </si>
+  <si>
+    <t>Rentmeesterschap</t>
+  </si>
+  <si>
+    <t>Diplomacy</t>
+  </si>
+  <si>
+    <t>Diplomatie</t>
+  </si>
+  <si>
+    <t>Martial</t>
+  </si>
+  <si>
+    <t>Krijgshaftigheid</t>
+  </si>
+  <si>
+    <t>Intrige</t>
+  </si>
+  <si>
+    <t>Learning</t>
+  </si>
+  <si>
+    <t>Geleerdheid</t>
+  </si>
+  <si>
+    <t>Prowess</t>
+  </si>
+  <si>
+    <t>Dapperheid</t>
+  </si>
+  <si>
+    <t>Dismiss</t>
+  </si>
+  <si>
+    <t>Ontzet</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>Afwijzen</t>
+  </si>
+  <si>
+    <t>Voor Afwijzen zie: Reject</t>
+  </si>
+  <si>
+    <t>Voor Ontzet zie: Dismiss</t>
+  </si>
+  <si>
+    <t>Aptitude</t>
+  </si>
+  <si>
+    <t>Aanleg</t>
   </si>
 </sst>
 </file>
@@ -236,8 +293,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:C15" totalsRowShown="0">
-  <autoFilter ref="A1:C15" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:C24" totalsRowShown="0">
+  <autoFilter ref="A1:C24" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BEFD245A-2A28-400B-A9E5-FE2EBA62AFD7}" name="Engelse term"/>
     <tableColumn id="2" xr3:uid="{C7771ADF-0301-48C6-AC98-3DC03BE980CB}" name="Nederlandse term"/>
@@ -510,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,6 +709,84 @@
         <v>31</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DLP woordenlijst.xlsx
+++ b/DLP woordenlijst.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanp\Documents\Paradox Interactive\Crusader Kings III\mod\DLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E68BEE7-78BA-4A6F-86C0-7721B939ADD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E8CBC3-9BED-4E68-B050-5C2BE23032CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="450" windowWidth="14400" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Engelse term</t>
   </si>
@@ -224,6 +224,39 @@
   </si>
   <si>
     <t>Aanleg</t>
+  </si>
+  <si>
+    <t>Men-at-Arms</t>
+  </si>
+  <si>
+    <t>Wapendragers</t>
+  </si>
+  <si>
+    <t>Accolade</t>
+  </si>
+  <si>
+    <t>Ridderslag</t>
+  </si>
+  <si>
+    <t>Zit erover na te denken dit te behouden als Ridderslag of als Accolade</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>Vaardigheden</t>
+  </si>
+  <si>
+    <t>Character Traits</t>
+  </si>
+  <si>
+    <t>Karaktertrekken</t>
+  </si>
+  <si>
+    <t>Traits</t>
+  </si>
+  <si>
+    <t>Eigenschappen</t>
   </si>
 </sst>
 </file>
@@ -293,8 +326,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:C24" totalsRowShown="0">
-  <autoFilter ref="A1:C24" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:C29" totalsRowShown="0">
+  <autoFilter ref="A1:C29" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BEFD245A-2A28-400B-A9E5-FE2EBA62AFD7}" name="Engelse term"/>
     <tableColumn id="2" xr3:uid="{C7771ADF-0301-48C6-AC98-3DC03BE980CB}" name="Nederlandse term"/>
@@ -567,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,6 +820,49 @@
         <v>50</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DLP woordenlijst.xlsx
+++ b/DLP woordenlijst.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanp\Documents\Paradox Interactive\Crusader Kings III\mod\DLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E8CBC3-9BED-4E68-B050-5C2BE23032CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602803EF-C973-4C36-AD67-F5D45A88E636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="450" windowWidth="14400" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>Engelse term</t>
   </si>
@@ -257,6 +257,33 @@
   </si>
   <si>
     <t>Eigenschappen</t>
+  </si>
+  <si>
+    <t>Lineage</t>
+  </si>
+  <si>
+    <t>Dread</t>
+  </si>
+  <si>
+    <t>Ontzagwekking</t>
+  </si>
+  <si>
+    <t>Enforce</t>
+  </si>
+  <si>
+    <t>Afdwingen</t>
+  </si>
+  <si>
+    <t>Prestige</t>
+  </si>
+  <si>
+    <t>Roem</t>
+  </si>
+  <si>
+    <t>Renown</t>
+  </si>
+  <si>
+    <t>Befaamdheid</t>
   </si>
 </sst>
 </file>
@@ -326,8 +353,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:C29" totalsRowShown="0">
-  <autoFilter ref="A1:C29" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:C34" totalsRowShown="0">
+  <autoFilter ref="A1:C34" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C32">
+    <sortCondition ref="A1:A32"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BEFD245A-2A28-400B-A9E5-FE2EBA62AFD7}" name="Engelse term"/>
     <tableColumn id="2" xr3:uid="{C7771ADF-0301-48C6-AC98-3DC03BE980CB}" name="Nederlandse term"/>
@@ -600,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,152 +656,152 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -784,83 +814,120 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B32" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/DLP woordenlijst.xlsx
+++ b/DLP woordenlijst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanp\Documents\Paradox Interactive\Crusader Kings III\mod\DLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602803EF-C973-4C36-AD67-F5D45A88E636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F54F8D-29E6-4BD7-BCC6-FDA0C7E92980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>Engelse term</t>
   </si>
@@ -284,6 +284,40 @@
   </si>
   <si>
     <t>Befaamdheid</t>
+  </si>
+  <si>
+    <t>Battle</t>
+  </si>
+  <si>
+    <t>Slag</t>
+  </si>
+  <si>
+    <t>Siege</t>
+  </si>
+  <si>
+    <t>Beleg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bv: Slag </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>om (Provincie)</t>
+    </r>
+  </si>
+  <si>
+    <t>Commander</t>
+  </si>
+  <si>
+    <t>Bevelhebber</t>
   </si>
 </sst>
 </file>
@@ -353,8 +387,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:C34" totalsRowShown="0">
-  <autoFilter ref="A1:C34" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:C37" totalsRowShown="0">
+  <autoFilter ref="A1:C37" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C32">
     <sortCondition ref="A1:A32"/>
   </sortState>
@@ -630,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,7 +948,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -922,12 +956,39 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>69</v>
       </c>
       <c r="B34" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/DLP woordenlijst.xlsx
+++ b/DLP woordenlijst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanp\Documents\Paradox Interactive\Crusader Kings III\mod\DLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F54F8D-29E6-4BD7-BCC6-FDA0C7E92980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5D70F4-49D8-4352-BD6C-E1A5D1037287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
   <si>
     <t>Engelse term</t>
   </si>
@@ -318,6 +318,30 @@
   </si>
   <si>
     <t>Bevelhebber</t>
+  </si>
+  <si>
+    <t>Grant Title</t>
+  </si>
+  <si>
+    <t>Verleen Titel</t>
+  </si>
+  <si>
+    <t>Hire (Court Position)</t>
+  </si>
+  <si>
+    <t>Benoem</t>
+  </si>
+  <si>
+    <t>Lifestyle</t>
+  </si>
+  <si>
+    <t>Levensstijl</t>
+  </si>
+  <si>
+    <t>Education Focus</t>
+  </si>
+  <si>
+    <t>Onderwijzingsfocus</t>
   </si>
 </sst>
 </file>
@@ -387,8 +411,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:C37" totalsRowShown="0">
-  <autoFilter ref="A1:C37" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:C41" totalsRowShown="0">
+  <autoFilter ref="A1:C41" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C32">
     <sortCondition ref="A1:A32"/>
   </sortState>
@@ -664,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,6 +1015,38 @@
         <v>77</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DLP woordenlijst.xlsx
+++ b/DLP woordenlijst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanp\Documents\Paradox Interactive\Crusader Kings III\mod\DLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5D70F4-49D8-4352-BD6C-E1A5D1037287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4647AC-9F83-4307-A583-8F4B1FA2EEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
   <si>
     <t>Engelse term</t>
   </si>
@@ -342,6 +342,48 @@
   </si>
   <si>
     <t>Onderwijzingsfocus</t>
+  </si>
+  <si>
+    <t>Hamlet</t>
+  </si>
+  <si>
+    <t>Gehucht</t>
+  </si>
+  <si>
+    <t>Locales</t>
+  </si>
+  <si>
+    <t>Gelegenheden</t>
+  </si>
+  <si>
+    <t>Decisions</t>
+  </si>
+  <si>
+    <t>Besluiten</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Gebeurtenis</t>
+  </si>
+  <si>
+    <t>Travelling</t>
+  </si>
+  <si>
+    <t>aan het reizen</t>
+  </si>
+  <si>
+    <t>Assign</t>
+  </si>
+  <si>
+    <t>Benoemen</t>
+  </si>
+  <si>
+    <t>Entourage</t>
+  </si>
+  <si>
+    <t>Hofstoet</t>
   </si>
 </sst>
 </file>
@@ -411,8 +453,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:C41" totalsRowShown="0">
-  <autoFilter ref="A1:C41" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:C48" totalsRowShown="0">
+  <autoFilter ref="A1:C48" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C32">
     <sortCondition ref="A1:A32"/>
   </sortState>
@@ -688,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,6 +1089,62 @@
         <v>85</v>
       </c>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DLP woordenlijst.xlsx
+++ b/DLP woordenlijst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanp\Documents\Paradox Interactive\Crusader Kings III\mod\DLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4647AC-9F83-4307-A583-8F4B1FA2EEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09FB67C-F690-4226-8901-16F970CFEBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
   <si>
     <t>Engelse term</t>
   </si>
@@ -384,6 +384,18 @@
   </si>
   <si>
     <t>Hofstoet</t>
+  </si>
+  <si>
+    <t>Claim</t>
+  </si>
+  <si>
+    <t>aanspraak</t>
+  </si>
+  <si>
+    <t>Ruler</t>
+  </si>
+  <si>
+    <t>Vorst</t>
   </si>
 </sst>
 </file>
@@ -453,10 +465,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:C48" totalsRowShown="0">
-  <autoFilter ref="A1:C48" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C32">
-    <sortCondition ref="A1:A32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:C50" totalsRowShown="0">
+  <autoFilter ref="A1:C50" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C50">
+    <sortCondition ref="A1:A50"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BEFD245A-2A28-400B-A9E5-FE2EBA62AFD7}" name="Engelse term"/>
@@ -730,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,374 +787,390 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/DLP woordenlijst.xlsx
+++ b/DLP woordenlijst.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanp\Documents\Paradox Interactive\Crusader Kings III\mod\DLP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09FB67C-F690-4226-8901-16F970CFEBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B46377-9C4D-4487-AC81-8CB6548E7D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35130" yWindow="2025" windowWidth="16470" windowHeight="16035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="212">
   <si>
     <t>Engelse term</t>
   </si>
@@ -187,9 +187,6 @@
     <t>Krijgshaftigheid</t>
   </si>
   <si>
-    <t>Intrige</t>
-  </si>
-  <si>
     <t>Learning</t>
   </si>
   <si>
@@ -286,20 +283,224 @@
     <t>Befaamdheid</t>
   </si>
   <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Augustus</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Bane</t>
+  </si>
+  <si>
+    <t>Vloek</t>
+  </si>
+  <si>
+    <t>Bondsmen</t>
+  </si>
+  <si>
+    <t>Bondsmannen</t>
+  </si>
+  <si>
+    <t>Engeneers</t>
+  </si>
+  <si>
+    <t>Technici</t>
+  </si>
+  <si>
+    <t>Fêted</t>
+  </si>
+  <si>
+    <t>Gevierd</t>
+  </si>
+  <si>
+    <t>Footmen</t>
+  </si>
+  <si>
+    <t>Voetknechten</t>
+  </si>
+  <si>
+    <t>Gallants</t>
+  </si>
+  <si>
+    <t>Vechters</t>
+  </si>
+  <si>
+    <t>? Context onbekend</t>
+  </si>
+  <si>
+    <t>Genrty</t>
+  </si>
+  <si>
+    <t>Gerieflijk</t>
+  </si>
+  <si>
+    <t>Guard</t>
+  </si>
+  <si>
+    <t>Wacht</t>
+  </si>
+  <si>
+    <t>Hard-Spurring</t>
+  </si>
+  <si>
+    <t>Harde aansporing</t>
+  </si>
+  <si>
+    <t>Harriers</t>
+  </si>
+  <si>
+    <t>Schutters</t>
+  </si>
+  <si>
+    <t>Lionized</t>
+  </si>
+  <si>
+    <t>Gelauwerd</t>
+  </si>
+  <si>
+    <t>Mace</t>
+  </si>
+  <si>
+    <t>Steek</t>
+  </si>
+  <si>
+    <t>Marauder</t>
+  </si>
+  <si>
+    <t>plunderaar</t>
+  </si>
+  <si>
+    <t>Milites</t>
+  </si>
+  <si>
+    <t>Militairen</t>
+  </si>
+  <si>
+    <t>Paragon</t>
+  </si>
+  <si>
+    <t>? Ook: Paradijs</t>
+  </si>
+  <si>
+    <t>Pike</t>
+  </si>
+  <si>
+    <t>Lange speer</t>
+  </si>
+  <si>
+    <t>ook Spear wordt gebruikt (vertaald als Speer)</t>
+  </si>
+  <si>
+    <t>Raiment</t>
+  </si>
+  <si>
+    <t>Vaandel</t>
+  </si>
+  <si>
+    <t>Retainers</t>
+  </si>
+  <si>
+    <t>Vazallen</t>
+  </si>
+  <si>
+    <t>Retinue</t>
+  </si>
+  <si>
+    <t>Gevolg</t>
+  </si>
+  <si>
+    <t>Seal</t>
+  </si>
+  <si>
+    <t>Afsluiting</t>
+  </si>
+  <si>
+    <t>Senior</t>
+  </si>
+  <si>
+    <t>Hooggeplaatste</t>
+  </si>
+  <si>
+    <t>Skirmishers</t>
+  </si>
+  <si>
+    <t>Schermers</t>
+  </si>
+  <si>
+    <t>Spurs</t>
+  </si>
+  <si>
+    <t>Verdedigers</t>
+  </si>
+  <si>
+    <t>Unsung</t>
+  </si>
+  <si>
+    <t>Ongewaardeerd</t>
+  </si>
+  <si>
+    <t>Vanguard</t>
+  </si>
+  <si>
+    <t>Voorhoede</t>
+  </si>
+  <si>
+    <t>? Ook: vaandel</t>
+  </si>
+  <si>
+    <t>Voice</t>
+  </si>
+  <si>
+    <t>Spraak</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>Krijger</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>Graafschap</t>
+  </si>
+  <si>
+    <t>Glory Hound Vasal</t>
+  </si>
+  <si>
+    <t>Eerzuchtige vazal</t>
+  </si>
+  <si>
+    <t>Hunt quarry</t>
+  </si>
+  <si>
+    <t>Jagen op prooi</t>
+  </si>
+  <si>
+    <t>Scheme</t>
+  </si>
+  <si>
+    <t>Langetermijnplan</t>
+  </si>
+  <si>
+    <t>Quarry of my dreams</t>
+  </si>
+  <si>
+    <t>Droompartner van mijn drome</t>
+  </si>
+  <si>
     <t>Battle</t>
   </si>
   <si>
     <t>Slag</t>
   </si>
   <si>
-    <t>Siege</t>
-  </si>
-  <si>
-    <t>Beleg</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">Bv: Slag </t>
+      <t xml:space="preserve">Bv: Slag om </t>
     </r>
     <r>
       <rPr>
@@ -310,10 +511,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>om (Provincie)</t>
+      <t>(Provincie)</t>
     </r>
   </si>
   <si>
+    <t>Beleg</t>
+  </si>
+  <si>
     <t>Commander</t>
   </si>
   <si>
@@ -386,16 +590,136 @@
     <t>Hofstoet</t>
   </si>
   <si>
+    <t>Holding</t>
+  </si>
+  <si>
+    <t>"een holding is de centrale nederzetting van een baronie of provinciehoofdstad"</t>
+  </si>
+  <si>
+    <t>Afgedwongen aanspraak</t>
+  </si>
+  <si>
+    <t>Pressed claim</t>
+  </si>
+  <si>
     <t>Claim</t>
   </si>
   <si>
-    <t>aanspraak</t>
-  </si>
-  <si>
-    <t>Ruler</t>
-  </si>
-  <si>
-    <t>Vorst</t>
+    <t>Aanspraak</t>
+  </si>
+  <si>
+    <t>Liege</t>
+  </si>
+  <si>
+    <t>Leenheer</t>
+  </si>
+  <si>
+    <t>Vassal</t>
+  </si>
+  <si>
+    <t>Vazal</t>
+  </si>
+  <si>
+    <t>Toegevoegd</t>
+  </si>
+  <si>
+    <t>2024-05-23</t>
+  </si>
+  <si>
+    <t>vrees</t>
+  </si>
+  <si>
+    <t>2024-05-19</t>
+  </si>
+  <si>
+    <t>ban</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>Siege</t>
+  </si>
+  <si>
+    <t>reizende</t>
+  </si>
+  <si>
+    <t>Piety</t>
+  </si>
+  <si>
+    <t>Vroomheid</t>
+  </si>
+  <si>
+    <t>Voorlopig gekozen voor vroomheid, maar ook devotie en godvruchtigheid zouden kunnen</t>
+  </si>
+  <si>
+    <t>Sibling</t>
+  </si>
+  <si>
+    <t>Broer of zus</t>
+  </si>
+  <si>
+    <t>Ik ken er niet één woord voor</t>
+  </si>
+  <si>
+    <t>Councillor</t>
+  </si>
+  <si>
+    <t>Modifier</t>
+  </si>
+  <si>
+    <t>"Een Modifier is een effect dat een waarde over een langere periode verandert"</t>
+  </si>
+  <si>
+    <t>Aanpassingsmogelijkheid</t>
+  </si>
+  <si>
+    <t>Opinion</t>
+  </si>
+  <si>
+    <t>Mening</t>
+  </si>
+  <si>
+    <t>Hofraadslid</t>
+  </si>
+  <si>
+    <t>Landed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Een Landed persoon is een Heerser die Holdings bezit. </t>
+  </si>
+  <si>
+    <t>Landheer ?</t>
+  </si>
+  <si>
+    <t>Claimant</t>
+  </si>
+  <si>
+    <t>Aanspraakmaker</t>
+  </si>
+  <si>
+    <t>Hoofdkwartier / Hoofdplaats?</t>
+  </si>
+  <si>
+    <t>Hook</t>
+  </si>
+  <si>
+    <t>Pressiemiddel</t>
+  </si>
+  <si>
+    <t>2024-05-24</t>
+  </si>
+  <si>
+    <t>Spymaster</t>
+  </si>
+  <si>
+    <t>Meesterspion</t>
+  </si>
+  <si>
+    <t>Chancellor</t>
+  </si>
+  <si>
+    <t>Kanselier</t>
   </si>
 </sst>
 </file>
@@ -445,13 +769,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -465,15 +797,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:C50" totalsRowShown="0">
-  <autoFilter ref="A1:C50" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C50">
-    <sortCondition ref="A1:A50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:D150" totalsRowShown="0">
+  <autoFilter ref="A1:D150" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D95">
+    <sortCondition ref="A1:A150"/>
   </sortState>
-  <tableColumns count="3">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BEFD245A-2A28-400B-A9E5-FE2EBA62AFD7}" name="Engelse term"/>
     <tableColumn id="2" xr3:uid="{C7771ADF-0301-48C6-AC98-3DC03BE980CB}" name="Nederlandse term"/>
     <tableColumn id="3" xr3:uid="{A302C31A-3B76-40AD-A403-4361CBAE6E9E}" name="uitleg"/>
+    <tableColumn id="4" xr3:uid="{CBD3F489-A211-4D84-9CF0-2CB3C4563807}" name="Toegevoegd" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -742,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,9 +1086,10 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -765,412 +1099,970 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" t="s">
+        <v>206</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>199</v>
+      </c>
+      <c r="B49" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>193</v>
+      </c>
+      <c r="B63" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" t="s">
+        <v>194</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64" t="s">
+        <v>197</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>186</v>
+      </c>
+      <c r="B66" t="s">
+        <v>187</v>
+      </c>
+      <c r="C66" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>171</v>
+      </c>
+      <c r="B69" t="s">
+        <v>170</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>111</v>
+      </c>
+      <c r="B77" t="s">
+        <v>112</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>136</v>
+      </c>
+      <c r="B79" t="s">
+        <v>137</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" t="s">
+        <v>85</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" t="s">
+        <v>116</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82" t="s">
+        <v>190</v>
+      </c>
+      <c r="C82" t="s">
+        <v>191</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>184</v>
+      </c>
+      <c r="B83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B84" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" t="s">
+        <v>120</v>
+      </c>
+      <c r="C86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>208</v>
+      </c>
+      <c r="B87" t="s">
+        <v>209</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>102</v>
-      </c>
-      <c r="B45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B89" t="s">
         <v>60</v>
       </c>
-      <c r="B49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" t="s">
-        <v>95</v>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90" t="s">
+        <v>163</v>
+      </c>
+      <c r="C90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" t="s">
+        <v>122</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" t="s">
+        <v>124</v>
+      </c>
+      <c r="C92" t="s">
+        <v>125</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>176</v>
+      </c>
+      <c r="B93" t="s">
+        <v>177</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" t="s">
+        <v>127</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" t="s">
+        <v>129</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/DLP woordenlijst.xlsx
+++ b/DLP woordenlijst.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanp\Documents\Paradox Interactive\Crusader Kings III\mod\DLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B46377-9C4D-4487-AC81-8CB6548E7D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463E1218-AD2D-4289-8E22-C54146F5BE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35130" yWindow="2025" windowWidth="16470" windowHeight="16035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="229">
   <si>
     <t>Engelse term</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Levies</t>
-  </si>
-  <si>
-    <t>Baanderheren</t>
   </si>
   <si>
     <r>
@@ -370,9 +367,6 @@
     <t>Marauder</t>
   </si>
   <si>
-    <t>plunderaar</t>
-  </si>
-  <si>
     <t>Milites</t>
   </si>
   <si>
@@ -720,6 +714,76 @@
   </si>
   <si>
     <t>Kanselier</t>
+  </si>
+  <si>
+    <t>Succession</t>
+  </si>
+  <si>
+    <t>Opvolging</t>
+  </si>
+  <si>
+    <t>Succession Law</t>
+  </si>
+  <si>
+    <t>Erfopvolging</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Edit: Ik heb persoonlijk Holding vertaald naar </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Heerlijkheid</t>
+    </r>
+  </si>
+  <si>
+    <t>Kolom1</t>
+  </si>
+  <si>
+    <t>Edit: Zou dit zelf vertalen naar Complotten</t>
+  </si>
+  <si>
+    <t>Edit: Heb ik vertaald naar Broers/Zussen, kan aan de hand van context ook aangepast worden natuurlijk</t>
+  </si>
+  <si>
+    <t>Edit: Vertaald naar Spionnenmeester</t>
+  </si>
+  <si>
+    <t>Raise Levies</t>
+  </si>
+  <si>
+    <t>Baanderheren Oproepen</t>
+  </si>
+  <si>
+    <t>Heervaarders</t>
+  </si>
+  <si>
+    <t>Crusaders</t>
+  </si>
+  <si>
+    <t>Kruisvaarders</t>
+  </si>
+  <si>
+    <t>Edit: Zelf vertaald naar modificatoren</t>
+  </si>
+  <si>
+    <t>Plunderaar</t>
+  </si>
+  <si>
+    <t>Fire (Job)</t>
+  </si>
+  <si>
+    <t>Royeren/Ontslaan</t>
   </si>
 </sst>
 </file>
@@ -797,16 +861,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:D150" totalsRowShown="0">
-  <autoFilter ref="A1:D150" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:E150" totalsRowShown="0">
+  <autoFilter ref="A1:E150" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D95">
     <sortCondition ref="A1:A150"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BEFD245A-2A28-400B-A9E5-FE2EBA62AFD7}" name="Engelse term"/>
     <tableColumn id="2" xr3:uid="{C7771ADF-0301-48C6-AC98-3DC03BE980CB}" name="Nederlandse term"/>
     <tableColumn id="3" xr3:uid="{A302C31A-3B76-40AD-A403-4361CBAE6E9E}" name="uitleg"/>
     <tableColumn id="4" xr3:uid="{CBD3F489-A211-4D84-9CF0-2CB3C4563807}" name="Toegevoegd" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{3244FCD1-134B-4EA4-9195-F9ED8CA29B1D}" name="Kolom1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1075,21 +1140,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="68.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1100,62 +1165,65 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="E1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>71</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>73</v>
       </c>
-      <c r="B6" t="s">
-        <v>74</v>
-      </c>
       <c r="C6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1163,100 +1231,100 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" t="s">
         <v>140</v>
       </c>
-      <c r="B8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B10" t="s">
-        <v>211</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" t="s">
-        <v>203</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>144</v>
-      </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1269,67 +1337,67 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
         <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
         <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
         <v>19</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
         <v>62</v>
       </c>
-      <c r="B24" t="s">
-        <v>63</v>
-      </c>
       <c r="C24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1342,10 +1410,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1358,199 +1426,202 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
         <v>64</v>
       </c>
-      <c r="B28" t="s">
-        <v>65</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
         <v>77</v>
-      </c>
-      <c r="B29" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
         <v>79</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
         <v>84</v>
       </c>
-      <c r="C34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="D40" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>203</v>
+      </c>
+      <c r="B44" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>132</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B45" t="s">
         <v>133</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>146</v>
-      </c>
-      <c r="B37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>154</v>
-      </c>
-      <c r="B39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>148</v>
-      </c>
-      <c r="B42" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>168</v>
-      </c>
-      <c r="B43" t="s">
-        <v>204</v>
-      </c>
-      <c r="C43" t="s">
-        <v>169</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>205</v>
-      </c>
-      <c r="B44" t="s">
-        <v>206</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" t="s">
-        <v>135</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" t="s">
         <v>30</v>
       </c>
-      <c r="B46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1558,511 +1629,578 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
         <v>17</v>
       </c>
-      <c r="B48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" t="s">
         <v>199</v>
       </c>
-      <c r="B49" t="s">
-        <v>201</v>
-      </c>
       <c r="C49" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" t="s">
+        <v>221</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" t="s">
+        <v>173</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" t="s">
+        <v>226</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" t="s">
+        <v>185</v>
+      </c>
+      <c r="C66" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B71" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" t="s">
+        <v>137</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" t="s">
+        <v>108</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" t="s">
+        <v>135</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E79" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" t="s">
+        <v>114</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>187</v>
+      </c>
+      <c r="B82" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82" t="s">
+        <v>189</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E82" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>182</v>
+      </c>
+      <c r="B83" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>117</v>
+      </c>
+      <c r="B86" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>206</v>
+      </c>
+      <c r="B87" t="s">
+        <v>207</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E87" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>58</v>
+      </c>
+      <c r="B89" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>160</v>
+      </c>
+      <c r="B90" t="s">
+        <v>161</v>
+      </c>
+      <c r="C90" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" t="s">
+        <v>122</v>
+      </c>
+      <c r="C92" t="s">
+        <v>123</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>174</v>
+      </c>
+      <c r="B93" t="s">
+        <v>175</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>124</v>
+      </c>
+      <c r="B94" t="s">
+        <v>125</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>126</v>
+      </c>
+      <c r="B95" t="s">
+        <v>127</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>210</v>
+      </c>
+      <c r="B96" t="s">
+        <v>211</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>212</v>
+      </c>
+      <c r="B97" t="s">
+        <v>213</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>12</v>
       </c>
-      <c r="B51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>174</v>
-      </c>
-      <c r="B52" t="s">
-        <v>175</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>150</v>
-      </c>
-      <c r="B53" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55" t="s">
-        <v>95</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>156</v>
-      </c>
-      <c r="B56" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57" t="s">
-        <v>97</v>
-      </c>
-      <c r="C57" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" t="s">
-        <v>99</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>100</v>
-      </c>
-      <c r="B62" t="s">
-        <v>101</v>
-      </c>
-      <c r="C62" t="s">
-        <v>85</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>193</v>
-      </c>
-      <c r="B63" t="s">
-        <v>195</v>
-      </c>
-      <c r="C63" t="s">
-        <v>194</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>196</v>
-      </c>
-      <c r="B64" t="s">
-        <v>197</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>102</v>
-      </c>
-      <c r="B65" t="s">
-        <v>102</v>
-      </c>
-      <c r="C65" t="s">
-        <v>103</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>186</v>
-      </c>
-      <c r="B66" t="s">
-        <v>187</v>
-      </c>
-      <c r="C66" t="s">
-        <v>188</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>104</v>
-      </c>
-      <c r="B67" t="s">
-        <v>105</v>
-      </c>
-      <c r="C67" t="s">
-        <v>106</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>21</v>
-      </c>
-      <c r="B68" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>171</v>
-      </c>
-      <c r="B69" t="s">
-        <v>170</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>66</v>
-      </c>
-      <c r="B70" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>40</v>
-      </c>
-      <c r="B71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>138</v>
-      </c>
-      <c r="B72" t="s">
-        <v>139</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>107</v>
-      </c>
-      <c r="B73" t="s">
-        <v>108</v>
-      </c>
-      <c r="C73" t="s">
-        <v>85</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>44</v>
-      </c>
-      <c r="B74" t="s">
-        <v>45</v>
-      </c>
-      <c r="C74" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>68</v>
-      </c>
-      <c r="B75" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>109</v>
-      </c>
-      <c r="B76" t="s">
-        <v>110</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>111</v>
-      </c>
-      <c r="B77" t="s">
-        <v>112</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>23</v>
-      </c>
-      <c r="B78" t="s">
-        <v>24</v>
-      </c>
-      <c r="C78" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>136</v>
-      </c>
-      <c r="B79" t="s">
-        <v>137</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>113</v>
-      </c>
-      <c r="B80" t="s">
-        <v>114</v>
-      </c>
-      <c r="C80" t="s">
-        <v>85</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>115</v>
-      </c>
-      <c r="B81" t="s">
-        <v>116</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>189</v>
-      </c>
-      <c r="B82" t="s">
-        <v>190</v>
-      </c>
-      <c r="C82" t="s">
-        <v>191</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>184</v>
-      </c>
-      <c r="B83" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>55</v>
-      </c>
-      <c r="B84" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>117</v>
-      </c>
-      <c r="B85" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>119</v>
-      </c>
-      <c r="B86" t="s">
-        <v>120</v>
-      </c>
-      <c r="C86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>208</v>
-      </c>
-      <c r="B87" t="s">
-        <v>209</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>32</v>
-      </c>
-      <c r="B88" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>59</v>
-      </c>
-      <c r="B89" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>162</v>
-      </c>
-      <c r="B90" t="s">
-        <v>163</v>
-      </c>
-      <c r="C90" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>121</v>
-      </c>
-      <c r="B91" t="s">
-        <v>122</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>123</v>
-      </c>
-      <c r="B92" t="s">
-        <v>124</v>
-      </c>
-      <c r="C92" t="s">
-        <v>125</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>176</v>
-      </c>
-      <c r="B93" t="s">
-        <v>177</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>126</v>
-      </c>
-      <c r="B94" t="s">
-        <v>127</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>128</v>
-      </c>
-      <c r="B95" t="s">
-        <v>129</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>183</v>
+      <c r="B98" t="s">
+        <v>222</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>223</v>
+      </c>
+      <c r="B99" t="s">
+        <v>224</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>227</v>
+      </c>
+      <c r="B100" t="s">
+        <v>228</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/DLP woordenlijst.xlsx
+++ b/DLP woordenlijst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanp\Documents\Paradox Interactive\Crusader Kings III\mod\DLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463E1218-AD2D-4289-8E22-C54146F5BE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C088A4E0-5599-46D7-A802-4856B5A5AC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="237">
   <si>
     <t>Engelse term</t>
   </si>
@@ -784,6 +784,30 @@
   </si>
   <si>
     <t>Royeren/Ontslaan</t>
+  </si>
+  <si>
+    <t>Petty King</t>
+  </si>
+  <si>
+    <t>Klein-Koning</t>
+  </si>
+  <si>
+    <t>2024-05-28</t>
+  </si>
+  <si>
+    <t>Edit: Heb ik vertaald naar Heldenmoed</t>
+  </si>
+  <si>
+    <t>Court Physician</t>
+  </si>
+  <si>
+    <t>Hofarts</t>
+  </si>
+  <si>
+    <t>Level of Faith</t>
+  </si>
+  <si>
+    <t>Niveau van Toewijding</t>
   </si>
 </sst>
 </file>
@@ -1140,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1880,6 +1904,9 @@
       <c r="B71" t="s">
         <v>40</v>
       </c>
+      <c r="E71" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -2201,6 +2228,50 @@
       </c>
       <c r="D100" s="1" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>229</v>
+      </c>
+      <c r="B101" t="s">
+        <v>230</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>233</v>
+      </c>
+      <c r="B102" t="s">
+        <v>234</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>184</v>
+      </c>
+      <c r="B103" t="s">
+        <v>185</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>235</v>
+      </c>
+      <c r="B104" t="s">
+        <v>236</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/DLP woordenlijst.xlsx
+++ b/DLP woordenlijst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanp\Documents\Paradox Interactive\Crusader Kings III\mod\DLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C088A4E0-5599-46D7-A802-4856B5A5AC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E231F89-8CFE-4834-8E1F-16695EE74F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="261">
   <si>
     <t>Engelse term</t>
   </si>
@@ -808,6 +808,78 @@
   </si>
   <si>
     <t>Niveau van Toewijding</t>
+  </si>
+  <si>
+    <t>Involved</t>
+  </si>
+  <si>
+    <t>Betrokken</t>
+  </si>
+  <si>
+    <t>Tour</t>
+  </si>
+  <si>
+    <t>Toer(nee)</t>
+  </si>
+  <si>
+    <t>Tournaments</t>
+  </si>
+  <si>
+    <t>Toernooien</t>
+  </si>
+  <si>
+    <t>Pilgrimage</t>
+  </si>
+  <si>
+    <t>Pelgrimstocht</t>
+  </si>
+  <si>
+    <t>Holy Site/Holy Sites</t>
+  </si>
+  <si>
+    <t>Heiligdom/Heiligdommen</t>
+  </si>
+  <si>
+    <t>Quit</t>
+  </si>
+  <si>
+    <t>Verlaat</t>
+  </si>
+  <si>
+    <t>Hangt af van de context</t>
+  </si>
+  <si>
+    <t>Activity Guests</t>
+  </si>
+  <si>
+    <t>Activiteitenbezoekers</t>
+  </si>
+  <si>
+    <t>In dit specifieke geval liefst zo vertalen</t>
+  </si>
+  <si>
+    <t>Usurp</t>
+  </si>
+  <si>
+    <t>Inlijven</t>
+  </si>
+  <si>
+    <t>Revoked</t>
+  </si>
+  <si>
+    <t>Herroepen</t>
+  </si>
+  <si>
+    <t>Swear Fealty</t>
+  </si>
+  <si>
+    <t>Trouw Zweren</t>
+  </si>
+  <si>
+    <t>Faith</t>
+  </si>
+  <si>
+    <t>Godsdienst</t>
   </si>
 </sst>
 </file>
@@ -1164,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111:D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2274,6 +2346,133 @@
         <v>231</v>
       </c>
     </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>237</v>
+      </c>
+      <c r="B105" t="s">
+        <v>238</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>239</v>
+      </c>
+      <c r="B106" t="s">
+        <v>240</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>241</v>
+      </c>
+      <c r="B107" t="s">
+        <v>242</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>243</v>
+      </c>
+      <c r="B108" t="s">
+        <v>244</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>245</v>
+      </c>
+      <c r="B109" t="s">
+        <v>246</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>247</v>
+      </c>
+      <c r="B110" t="s">
+        <v>248</v>
+      </c>
+      <c r="C110" t="s">
+        <v>249</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>250</v>
+      </c>
+      <c r="B111" t="s">
+        <v>251</v>
+      </c>
+      <c r="C111" t="s">
+        <v>252</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>253</v>
+      </c>
+      <c r="B112" t="s">
+        <v>254</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>255</v>
+      </c>
+      <c r="B113" t="s">
+        <v>256</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>257</v>
+      </c>
+      <c r="B114" t="s">
+        <v>258</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>259</v>
+      </c>
+      <c r="B115" t="s">
+        <v>260</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DLP woordenlijst.xlsx
+++ b/DLP woordenlijst.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanp\Documents\Paradox Interactive\Crusader Kings III\mod\DLP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E231F89-8CFE-4834-8E1F-16695EE74F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C09D4C-C46A-48D5-AFC2-582F2AE4F4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31320" yWindow="2400" windowWidth="17595" windowHeight="17430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="289">
   <si>
     <t>Engelse term</t>
   </si>
@@ -193,9 +193,6 @@
     <t>Prowess</t>
   </si>
   <si>
-    <t>Dapperheid</t>
-  </si>
-  <si>
     <t>Dismiss</t>
   </si>
   <si>
@@ -478,13 +475,7 @@
     <t>Scheme</t>
   </si>
   <si>
-    <t>Langetermijnplan</t>
-  </si>
-  <si>
     <t>Quarry of my dreams</t>
-  </si>
-  <si>
-    <t>Droompartner van mijn drome</t>
   </si>
   <si>
     <t>Battle</t>
@@ -587,9 +578,6 @@
     <t>Holding</t>
   </si>
   <si>
-    <t>"een holding is de centrale nederzetting van een baronie of provinciehoofdstad"</t>
-  </si>
-  <si>
     <t>Afgedwongen aanspraak</t>
   </si>
   <si>
@@ -689,12 +677,6 @@
     <t>Claimant</t>
   </si>
   <si>
-    <t>Aanspraakmaker</t>
-  </si>
-  <si>
-    <t>Hoofdkwartier / Hoofdplaats?</t>
-  </si>
-  <si>
     <t>Hook</t>
   </si>
   <si>
@@ -707,28 +689,223 @@
     <t>Spymaster</t>
   </si>
   <si>
-    <t>Meesterspion</t>
-  </si>
-  <si>
     <t>Chancellor</t>
   </si>
   <si>
     <t>Kanselier</t>
   </si>
   <si>
+    <t>(Onbezongen klinkt zo vreemd)</t>
+  </si>
+  <si>
+    <t>Droompartner van mijn dromen</t>
+  </si>
+  <si>
+    <t>De Jure</t>
+  </si>
+  <si>
+    <t>De Jure (laten?) of rechtens</t>
+  </si>
+  <si>
+    <t>Diarchy</t>
+  </si>
+  <si>
+    <t>Diarchie</t>
+  </si>
+  <si>
+    <t>een bestuursvorm waarbij de macht verdeeld is tussen twee onafhankelijke autoriteiten</t>
+  </si>
+  <si>
+    <t>Perks</t>
+  </si>
+  <si>
+    <t>Vooralsnog de term niet vertaald</t>
+  </si>
+  <si>
+    <t>Faction</t>
+  </si>
+  <si>
+    <t>Opstandige groep</t>
+  </si>
+  <si>
+    <t>Doctrine</t>
+  </si>
+  <si>
+    <t>Geloofsleer</t>
+  </si>
+  <si>
+    <t>2024-05-25</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>Vertegenwoordiger / Medewerker</t>
+  </si>
+  <si>
+    <t>Hooked</t>
+  </si>
+  <si>
+    <t>of toch maar gewoon "Haak" hanteren</t>
+  </si>
+  <si>
+    <t>Claimer / Aanspraakmaker / Eiser / Vorderaar</t>
+  </si>
+  <si>
+    <t>Neig naar Claimer</t>
+  </si>
+  <si>
+    <t>Niet gelukkig mee; zoek naar betere vertaling</t>
+  </si>
+  <si>
     <t>Succession</t>
   </si>
   <si>
+    <t>Succession Law</t>
+  </si>
+  <si>
+    <t>Heervaarders (Was: Baanderheren)</t>
+  </si>
+  <si>
+    <t>Crusaders</t>
+  </si>
+  <si>
+    <t>Fire (Job)</t>
+  </si>
+  <si>
+    <t>Petty King</t>
+  </si>
+  <si>
+    <t>Court physician</t>
+  </si>
+  <si>
+    <t>Hofarts</t>
+  </si>
+  <si>
+    <t>Level of Faith</t>
+  </si>
+  <si>
+    <t>Involved</t>
+  </si>
+  <si>
+    <t>Tour</t>
+  </si>
+  <si>
+    <t>Tournaments</t>
+  </si>
+  <si>
+    <t>Pilgrimage</t>
+  </si>
+  <si>
+    <t>Pelgrimstocht</t>
+  </si>
+  <si>
+    <t>Holy Site/Holy Sites</t>
+  </si>
+  <si>
+    <t>Quit</t>
+  </si>
+  <si>
+    <t>Activity Guests</t>
+  </si>
+  <si>
+    <t>Usurp</t>
+  </si>
+  <si>
+    <t>Revoked</t>
+  </si>
+  <si>
+    <t>Swear Fealty</t>
+  </si>
+  <si>
+    <t>Faith</t>
+  </si>
+  <si>
+    <t>Kolom</t>
+  </si>
+  <si>
     <t>Opvolging</t>
   </si>
   <si>
-    <t>Succession Law</t>
+    <t>2024-05-27</t>
   </si>
   <si>
     <t>Erfopvolging</t>
   </si>
   <si>
-    <t>2024-05-27</t>
+    <t>Kruisvaarders</t>
+  </si>
+  <si>
+    <t>Royeren/Ontslaan</t>
+  </si>
+  <si>
+    <t>Klein-Koning</t>
+  </si>
+  <si>
+    <t>2024-05-28</t>
+  </si>
+  <si>
+    <t>Niveau van Toewijding</t>
+  </si>
+  <si>
+    <t>Betrokken</t>
+  </si>
+  <si>
+    <t>Toer(nee)</t>
+  </si>
+  <si>
+    <t>Toernooien</t>
+  </si>
+  <si>
+    <t>Heiligdom/Heiligdommen</t>
+  </si>
+  <si>
+    <t>Verlaat</t>
+  </si>
+  <si>
+    <t>Hangt af van de context</t>
+  </si>
+  <si>
+    <t>Activiteitenbezoekers</t>
+  </si>
+  <si>
+    <t>In dit specifieke geval liefst zo vertalen</t>
+  </si>
+  <si>
+    <t>Inlijven</t>
+  </si>
+  <si>
+    <t>Herroepen</t>
+  </si>
+  <si>
+    <t>Trouw Zweren</t>
+  </si>
+  <si>
+    <t>Godsdienst</t>
+  </si>
+  <si>
+    <t>Vaardighedenboom?</t>
+  </si>
+  <si>
+    <t>Raise Levies</t>
+  </si>
+  <si>
+    <t>Baanderheren Oproepen</t>
+  </si>
+  <si>
+    <t>Edit: Heb ik vertaald naar Heldenmoed</t>
+  </si>
+  <si>
+    <t>Edit: Vertaald naar Spionnenmeester</t>
+  </si>
+  <si>
+    <t>Edit: Heb ik vertaald naar Broers/Zussen, kan aan de hand van context ook aangepast worden natuurlijk</t>
+  </si>
+  <si>
+    <t>Edit: Zou dit zelf vertalen naar Complotten</t>
+  </si>
+  <si>
+    <t>Edit: Zelf vertaald naar modificatoren</t>
   </si>
   <si>
     <r>
@@ -747,139 +924,46 @@
     </r>
   </si>
   <si>
-    <t>Kolom1</t>
-  </si>
-  <si>
-    <t>Edit: Zou dit zelf vertalen naar Complotten</t>
-  </si>
-  <si>
-    <t>Edit: Heb ik vertaald naar Broers/Zussen, kan aan de hand van context ook aangepast worden natuurlijk</t>
-  </si>
-  <si>
-    <t>Edit: Vertaald naar Spionnenmeester</t>
-  </si>
-  <si>
-    <t>Raise Levies</t>
-  </si>
-  <si>
-    <t>Baanderheren Oproepen</t>
-  </si>
-  <si>
-    <t>Heervaarders</t>
-  </si>
-  <si>
-    <t>Crusaders</t>
-  </si>
-  <si>
-    <t>Kruisvaarders</t>
-  </si>
-  <si>
-    <t>Edit: Zelf vertaald naar modificatoren</t>
+    <t>In lijnopvolging</t>
+  </si>
+  <si>
+    <t>Aan de haak ?</t>
   </si>
   <si>
     <t>Plunderaar</t>
   </si>
   <si>
-    <t>Fire (Job)</t>
-  </si>
-  <si>
-    <t>Royeren/Ontslaan</t>
-  </si>
-  <si>
-    <t>Petty King</t>
-  </si>
-  <si>
-    <t>Klein-Koning</t>
-  </si>
-  <si>
-    <t>2024-05-28</t>
-  </si>
-  <si>
-    <t>Edit: Heb ik vertaald naar Heldenmoed</t>
-  </si>
-  <si>
-    <t>Court Physician</t>
-  </si>
-  <si>
-    <t>Hofarts</t>
-  </si>
-  <si>
-    <t>Level of Faith</t>
-  </si>
-  <si>
-    <t>Niveau van Toewijding</t>
-  </si>
-  <si>
-    <t>Involved</t>
-  </si>
-  <si>
-    <t>Betrokken</t>
-  </si>
-  <si>
-    <t>Tour</t>
-  </si>
-  <si>
-    <t>Toer(nee)</t>
-  </si>
-  <si>
-    <t>Tournaments</t>
-  </si>
-  <si>
-    <t>Toernooien</t>
-  </si>
-  <si>
-    <t>Pilgrimage</t>
-  </si>
-  <si>
-    <t>Pelgrimstocht</t>
-  </si>
-  <si>
-    <t>Holy Site/Holy Sites</t>
-  </si>
-  <si>
-    <t>Heiligdom/Heiligdommen</t>
-  </si>
-  <si>
-    <t>Quit</t>
-  </si>
-  <si>
-    <t>Verlaat</t>
-  </si>
-  <si>
-    <t>Hangt af van de context</t>
-  </si>
-  <si>
-    <t>Activity Guests</t>
-  </si>
-  <si>
-    <t>Activiteitenbezoekers</t>
-  </si>
-  <si>
-    <t>In dit specifieke geval liefst zo vertalen</t>
-  </si>
-  <si>
-    <t>Usurp</t>
-  </si>
-  <si>
-    <t>Inlijven</t>
-  </si>
-  <si>
-    <t>Revoked</t>
-  </si>
-  <si>
-    <t>Herroepen</t>
-  </si>
-  <si>
-    <t>Swear Fealty</t>
-  </si>
-  <si>
-    <t>Trouw Zweren</t>
-  </si>
-  <si>
-    <t>Faith</t>
-  </si>
-  <si>
-    <t>Godsdienst</t>
+    <t>Heldenmoed</t>
+  </si>
+  <si>
+    <t>eerder vertaald als Dapperheid</t>
+  </si>
+  <si>
+    <t>Hierboven staat Heervaarders ipv Baanderheren</t>
+  </si>
+  <si>
+    <t>Complot</t>
+  </si>
+  <si>
+    <t>Eerder vertaald als Langetermijnplan</t>
+  </si>
+  <si>
+    <t>Afhankelijk van context</t>
+  </si>
+  <si>
+    <t>Belegering</t>
+  </si>
+  <si>
+    <t>Spionnenmeester</t>
+  </si>
+  <si>
+    <t>Ook vertaald als Meesterspion</t>
+  </si>
+  <si>
+    <t>Heerlijkheid</t>
+  </si>
+  <si>
+    <t>Ook vertaald als: Hoofdkwartier of Hoofdplaats "een holding is de centrale nederzetting van een baronie of provinciehoofdstad"</t>
   </si>
 </sst>
 </file>
@@ -909,12 +993,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -929,11 +1019,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -957,17 +1049,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:E150" totalsRowShown="0">
-  <autoFilter ref="A1:E150" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D95">
-    <sortCondition ref="A1:A150"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:E151" totalsRowShown="0">
+  <autoFilter ref="A1:E151" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E121">
+    <sortCondition ref="A1:A151"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BEFD245A-2A28-400B-A9E5-FE2EBA62AFD7}" name="Engelse term"/>
     <tableColumn id="2" xr3:uid="{C7771ADF-0301-48C6-AC98-3DC03BE980CB}" name="Nederlandse term"/>
     <tableColumn id="3" xr3:uid="{A302C31A-3B76-40AD-A403-4361CBAE6E9E}" name="uitleg"/>
     <tableColumn id="4" xr3:uid="{CBD3F489-A211-4D84-9CF0-2CB3C4563807}" name="Toegevoegd" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{3244FCD1-134B-4EA4-9195-F9ED8CA29B1D}" name="Kolom1"/>
+    <tableColumn id="5" xr3:uid="{39B66416-6FFC-4032-B8EE-7E2ABF7441BF}" name="Kolom"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1236,17 +1328,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111:D115"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="68.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1261,701 +1353,713 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E1" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>260</v>
+      </c>
+      <c r="C3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>218</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>205</v>
+        <v>136</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>177</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>221</v>
+      </c>
+      <c r="C15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
+        <v>128</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
+        <v>231</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>249</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>178</v>
+        <v>205</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>208</v>
+      </c>
+      <c r="C26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>177</v>
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>215</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>212</v>
+      </c>
+      <c r="B39" t="s">
+        <v>213</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>244</v>
+      </c>
+      <c r="B40" t="s">
+        <v>265</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
         <v>78</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D41" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>228</v>
+      </c>
+      <c r="B42" t="s">
+        <v>250</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B43" t="s">
         <v>80</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B44" t="s">
         <v>82</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C44" t="s">
         <v>83</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D44" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B45" t="s">
         <v>85</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>86</v>
       </c>
-      <c r="C35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>144</v>
-      </c>
-      <c r="B37" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B48" t="s">
         <v>87</v>
-      </c>
-      <c r="B38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>152</v>
-      </c>
-      <c r="B39" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>166</v>
-      </c>
-      <c r="B43" t="s">
-        <v>202</v>
-      </c>
-      <c r="C43" t="s">
-        <v>167</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E43" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>203</v>
-      </c>
-      <c r="B44" t="s">
-        <v>204</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>132</v>
-      </c>
-      <c r="B45" t="s">
-        <v>133</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="B49" t="s">
-        <v>199</v>
-      </c>
-      <c r="C49" t="s">
-        <v>198</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>89</v>
+      </c>
+      <c r="C50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
-        <v>221</v>
-      </c>
-      <c r="C51" t="s">
-        <v>13</v>
+        <v>91</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="B52" t="s">
-        <v>173</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>287</v>
+      </c>
+      <c r="C53" t="s">
+        <v>288</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E53" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>238</v>
+      </c>
+      <c r="B54" t="s">
+        <v>257</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>198</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>154</v>
-      </c>
-      <c r="B56" t="s">
-        <v>155</v>
+        <v>219</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
-      </c>
-      <c r="C57" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>226</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>179</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>254</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>98</v>
-      </c>
-      <c r="B62" t="s">
-        <v>99</v>
+        <v>193</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
+        <v>194</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c r="B63" t="s">
-        <v>193</v>
-      </c>
-      <c r="C63" t="s">
-        <v>192</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E63" t="s">
-        <v>225</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="B64" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>177</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="C65" t="s">
-        <v>101</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B66" t="s">
-        <v>185</v>
-      </c>
-      <c r="C66" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="B67" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" t="s">
-        <v>104</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>275</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>177</v>
@@ -1963,514 +2067,607 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="B71" t="s">
-        <v>40</v>
-      </c>
-      <c r="E71" t="s">
-        <v>232</v>
+        <v>95</v>
+      </c>
+      <c r="C71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="B72" t="s">
-        <v>137</v>
+        <v>277</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="B73" t="s">
-        <v>106</v>
-      </c>
-      <c r="C73" t="s">
-        <v>84</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>181</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B74" t="s">
-        <v>44</v>
-      </c>
-      <c r="C74" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>98</v>
+      </c>
+      <c r="C76" t="s">
+        <v>83</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="B77" t="s">
-        <v>110</v>
+        <v>189</v>
+      </c>
+      <c r="C77" t="s">
+        <v>188</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
-      </c>
-      <c r="C78" t="s">
-        <v>24</v>
+        <v>191</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B79" t="s">
-        <v>135</v>
+        <v>99</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E79" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>111</v>
-      </c>
-      <c r="B80" t="s">
-        <v>112</v>
-      </c>
-      <c r="C80" t="s">
-        <v>84</v>
+        <v>210</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>229</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>251</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>181</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B82" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C82" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E82" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="B83" t="s">
-        <v>141</v>
+        <v>102</v>
+      </c>
+      <c r="C83" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>54</v>
+        <v>236</v>
       </c>
       <c r="B84" t="s">
-        <v>55</v>
+        <v>237</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="B86" t="s">
-        <v>118</v>
-      </c>
-      <c r="C86" t="s">
-        <v>84</v>
+        <v>164</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>206</v>
+        <v>64</v>
       </c>
       <c r="B87" t="s">
-        <v>207</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E87" t="s">
-        <v>219</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>278</v>
+      </c>
+      <c r="C88" t="s">
+        <v>279</v>
+      </c>
+      <c r="E88" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="B89" t="s">
-        <v>59</v>
+        <v>204</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="B90" t="s">
-        <v>161</v>
+        <v>258</v>
       </c>
       <c r="C90" t="s">
-        <v>183</v>
+        <v>259</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>120</v>
+        <v>105</v>
+      </c>
+      <c r="C91" t="s">
+        <v>83</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>121</v>
-      </c>
-      <c r="B92" t="s">
-        <v>122</v>
+        <v>267</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="C92" t="s">
-        <v>123</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>181</v>
+        <v>13</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="B93" t="s">
-        <v>175</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>177</v>
+        <v>43</v>
+      </c>
+      <c r="C93" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="B94" t="s">
-        <v>125</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>210</v>
+        <v>108</v>
       </c>
       <c r="B96" t="s">
-        <v>211</v>
+        <v>109</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="B97" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B98" t="s">
-        <v>222</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="B99" t="s">
+        <v>281</v>
+      </c>
+      <c r="C99" t="s">
+        <v>282</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>110</v>
+      </c>
+      <c r="B100" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" t="s">
+        <v>83</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>112</v>
+      </c>
+      <c r="B101" t="s">
+        <v>113</v>
+      </c>
+      <c r="C101" t="s">
+        <v>283</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>183</v>
+      </c>
+      <c r="B102" t="s">
+        <v>184</v>
+      </c>
+      <c r="C102" t="s">
+        <v>185</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E102" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>178</v>
+      </c>
+      <c r="B103" t="s">
+        <v>138</v>
+      </c>
+      <c r="C103" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>53</v>
+      </c>
+      <c r="B104" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>200</v>
+      </c>
+      <c r="B107" t="s">
+        <v>285</v>
+      </c>
+      <c r="C107" t="s">
+        <v>286</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E107" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>31</v>
+      </c>
+      <c r="B108" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>224</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>227</v>
-      </c>
-      <c r="B100" t="s">
-        <v>228</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>229</v>
-      </c>
-      <c r="B101" t="s">
-        <v>230</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>233</v>
-      </c>
-      <c r="B102" t="s">
-        <v>234</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>184</v>
-      </c>
-      <c r="B103" t="s">
-        <v>185</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>235</v>
-      </c>
-      <c r="B104" t="s">
-        <v>236</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>237</v>
-      </c>
-      <c r="B105" t="s">
-        <v>238</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>239</v>
-      </c>
-      <c r="B106" t="s">
-        <v>240</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>241</v>
-      </c>
-      <c r="B107" t="s">
-        <v>242</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>243</v>
-      </c>
-      <c r="B108" t="s">
-        <v>244</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>245</v>
       </c>
       <c r="B109" t="s">
         <v>246</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="B110" t="s">
         <v>248</v>
       </c>
-      <c r="C110" t="s">
-        <v>249</v>
-      </c>
       <c r="D110" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B111" t="s">
-        <v>251</v>
-      </c>
-      <c r="C111" t="s">
+        <v>264</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="B112" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="B113" t="s">
         <v>256</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>257</v>
+        <v>57</v>
       </c>
       <c r="B114" t="s">
-        <v>258</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>231</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="B115" t="s">
-        <v>260</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>231</v>
+        <v>158</v>
+      </c>
+      <c r="C115" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116" t="s">
+        <v>203</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>241</v>
+      </c>
+      <c r="B117" t="s">
+        <v>262</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>121</v>
+      </c>
+      <c r="C118" t="s">
+        <v>122</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>170</v>
+      </c>
+      <c r="B119" t="s">
+        <v>171</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" t="s">
+        <v>124</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" t="s">
+        <v>126</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/DLP woordenlijst.xlsx
+++ b/DLP woordenlijst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C09D4C-C46A-48D5-AFC2-582F2AE4F4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F45C86-DE6D-4D1C-8161-1AD5BA592813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31320" yWindow="2400" windowWidth="17595" windowHeight="17430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="294">
   <si>
     <t>Engelse term</t>
   </si>
@@ -719,15 +719,9 @@
     <t>Perks</t>
   </si>
   <si>
-    <t>Vooralsnog de term niet vertaald</t>
-  </si>
-  <si>
     <t>Faction</t>
   </si>
   <si>
-    <t>Opstandige groep</t>
-  </si>
-  <si>
     <t>Doctrine</t>
   </si>
   <si>
@@ -882,9 +876,6 @@
   </si>
   <si>
     <t>Godsdienst</t>
-  </si>
-  <si>
-    <t>Vaardighedenboom?</t>
   </si>
   <si>
     <t>Raise Levies</t>
@@ -964,6 +955,30 @@
   </si>
   <si>
     <t>Ook vertaald als: Hoofdkwartier of Hoofdplaats "een holding is de centrale nederzetting van een baronie of provinciehoofdstad"</t>
+  </si>
+  <si>
+    <t>Tier</t>
+  </si>
+  <si>
+    <t>Troeven?</t>
+  </si>
+  <si>
+    <t>Titelrang</t>
+  </si>
+  <si>
+    <t>Tribal</t>
+  </si>
+  <si>
+    <t>Tribaal</t>
+  </si>
+  <si>
+    <t>Eigen aan een volksstam</t>
+  </si>
+  <si>
+    <t>Neig nu meer naar gewoon Factie</t>
+  </si>
+  <si>
+    <t>Opstandige groep / Factie</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1066,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:E151" totalsRowShown="0">
   <autoFilter ref="A1:E151" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E121">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E123">
     <sortCondition ref="A1:A151"/>
   </sortState>
   <tableColumns count="5">
@@ -1328,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,7 +1371,7 @@
         <v>172</v>
       </c>
       <c r="E1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1372,30 +1387,30 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1507,13 +1522,13 @@
         <v>196</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1575,24 +1590,24 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1657,13 +1672,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B30" t="s">
-        <v>215</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1738,10 +1753,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B39" t="s">
-        <v>213</v>
+        <v>293</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>199</v>
@@ -1749,13 +1767,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1771,13 +1789,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B42" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1889,27 +1907,27 @@
         <v>163</v>
       </c>
       <c r="B53" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C53" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E53" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B54" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1920,7 +1938,7 @@
         <v>198</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>199</v>
@@ -1928,10 +1946,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1955,13 +1973,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B59" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2004,13 +2022,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B64" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2018,7 +2036,7 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
@@ -2048,10 +2066,10 @@
         <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2092,7 +2110,7 @@
         <v>96</v>
       </c>
       <c r="B72" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>175</v>
@@ -2150,7 +2168,7 @@
         <v>173</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2183,24 +2201,22 @@
         <v>210</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>266</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="C80" s="3"/>
       <c r="D80" s="1" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B81" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2233,13 +2249,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B84" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2274,13 +2290,13 @@
         <v>39</v>
       </c>
       <c r="B88" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C88" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E88" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2296,16 +2312,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B90" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C90" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2324,16 +2340,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2379,13 +2395,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B97" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2404,16 +2420,16 @@
         <v>133</v>
       </c>
       <c r="B99" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C99" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>272</v>
+      <c r="E99" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2438,7 +2454,7 @@
         <v>113</v>
       </c>
       <c r="C101" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>177</v>
@@ -2458,7 +2474,7 @@
         <v>173</v>
       </c>
       <c r="E102" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2469,7 +2485,7 @@
         <v>138</v>
       </c>
       <c r="C103" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2504,16 +2520,16 @@
         <v>200</v>
       </c>
       <c r="B107" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C107" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>199</v>
       </c>
       <c r="E107" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -2526,112 +2542,112 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B109" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B110" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B111" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="B112" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B113" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>57</v>
+        <v>233</v>
       </c>
       <c r="B114" t="s">
-        <v>58</v>
+        <v>254</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="B115" t="s">
-        <v>158</v>
-      </c>
-      <c r="C115" t="s">
-        <v>179</v>
+        <v>58</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="C116" t="s">
-        <v>203</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="B117" t="s">
-        <v>262</v>
+        <v>290</v>
+      </c>
+      <c r="C117" t="s">
+        <v>291</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>177</v>
@@ -2639,21 +2655,24 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="B119" t="s">
-        <v>171</v>
+        <v>260</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>173</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="C120" t="s">
+        <v>122</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>177</v>
@@ -2661,12 +2680,34 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>170</v>
+      </c>
+      <c r="B121" t="s">
+        <v>171</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s">
+        <v>124</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>125</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B123" t="s">
         <v>126</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>177</v>
       </c>
     </row>

--- a/DLP woordenlijst.xlsx
+++ b/DLP woordenlijst.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanp\Documents\Paradox Interactive\Crusader Kings III\mod\DLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F45C86-DE6D-4D1C-8161-1AD5BA592813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5A0969-BB46-4A0C-8097-D139CBDB8BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31320" yWindow="2400" windowWidth="17595" windowHeight="17430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="304">
   <si>
     <t>Engelse term</t>
   </si>
@@ -979,6 +979,36 @@
   </si>
   <si>
     <t>Opstandige groep / Factie</t>
+  </si>
+  <si>
+    <t>Alliance</t>
+  </si>
+  <si>
+    <t>Bondgenootschap</t>
+  </si>
+  <si>
+    <t>Allies</t>
+  </si>
+  <si>
+    <t>Bondgenoten</t>
+  </si>
+  <si>
+    <t>Allied</t>
+  </si>
+  <si>
+    <t>Verbonden</t>
+  </si>
+  <si>
+    <t>Concubine</t>
+  </si>
+  <si>
+    <t>Bijvrouw</t>
+  </si>
+  <si>
+    <t>Heb zelf de context hiervan ietwat aangepast. Gezien het de Baanderheren waren die moesten worden opgeroepen en zij kwamen dan met de Heervaarders</t>
+  </si>
+  <si>
+    <t>Kolom1</t>
   </si>
 </sst>
 </file>
@@ -1034,13 +1064,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1064,17 +1093,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:E151" totalsRowShown="0">
-  <autoFilter ref="A1:E151" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:F151" totalsRowShown="0">
+  <autoFilter ref="A1:F151" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E123">
     <sortCondition ref="A1:A151"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{BEFD245A-2A28-400B-A9E5-FE2EBA62AFD7}" name="Engelse term"/>
     <tableColumn id="2" xr3:uid="{C7771ADF-0301-48C6-AC98-3DC03BE980CB}" name="Nederlandse term"/>
     <tableColumn id="3" xr3:uid="{A302C31A-3B76-40AD-A403-4361CBAE6E9E}" name="uitleg"/>
     <tableColumn id="4" xr3:uid="{CBD3F489-A211-4D84-9CF0-2CB3C4563807}" name="Toegevoegd" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{39B66416-6FFC-4032-B8EE-7E2ABF7441BF}" name="Kolom"/>
+    <tableColumn id="6" xr3:uid="{25B7B3D6-5C40-4EAD-9C08-67B62FA7B971}" name="Kolom1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1343,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,7 +1387,7 @@
     <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1373,8 +1403,11 @@
       <c r="E1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1385,7 +1418,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>238</v>
       </c>
@@ -1399,7 +1432,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -1413,7 +1446,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1421,7 +1454,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>159</v>
       </c>
@@ -1429,7 +1462,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -1443,7 +1476,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -1454,7 +1487,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1462,7 +1495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -1473,7 +1506,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -1487,7 +1520,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>201</v>
       </c>
@@ -1498,7 +1531,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -1506,7 +1539,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>166</v>
       </c>
@@ -1517,7 +1550,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>196</v>
       </c>
@@ -1531,7 +1564,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>139</v>
       </c>
@@ -2203,12 +2236,11 @@
       <c r="B80" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C80" s="3"/>
       <c r="D80" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>227</v>
       </c>
@@ -2219,7 +2251,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>180</v>
       </c>
@@ -2233,7 +2265,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>101</v>
       </c>
@@ -2247,7 +2279,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>234</v>
       </c>
@@ -2258,7 +2290,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -2266,7 +2298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>165</v>
       </c>
@@ -2277,7 +2309,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>64</v>
       </c>
@@ -2285,7 +2317,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>39</v>
       </c>
@@ -2299,7 +2331,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>134</v>
       </c>
@@ -2310,7 +2342,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>237</v>
       </c>
@@ -2324,7 +2356,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -2338,7 +2370,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>264</v>
       </c>
@@ -2351,8 +2383,11 @@
       <c r="E92" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>42</v>
       </c>
@@ -2363,7 +2398,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>66</v>
       </c>
@@ -2371,7 +2406,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>106</v>
       </c>
@@ -2382,7 +2417,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>108</v>
       </c>
@@ -2709,6 +2744,50 @@
       </c>
       <c r="D123" s="1" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>294</v>
+      </c>
+      <c r="B124" t="s">
+        <v>295</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>296</v>
+      </c>
+      <c r="B125" t="s">
+        <v>297</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>298</v>
+      </c>
+      <c r="B126" t="s">
+        <v>299</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>300</v>
+      </c>
+      <c r="B127" t="s">
+        <v>301</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/DLP woordenlijst.xlsx
+++ b/DLP woordenlijst.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanp\Documents\Paradox Interactive\Crusader Kings III\mod\DLP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5A0969-BB46-4A0C-8097-D139CBDB8BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B57DBEA-F95F-46ED-A3A4-2F4F90E93B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31320" yWindow="2400" windowWidth="17595" windowHeight="17430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="300">
   <si>
     <t>Engelse term</t>
   </si>
@@ -981,41 +981,52 @@
     <t>Opstandige groep / Factie</t>
   </si>
   <si>
-    <t>Alliance</t>
-  </si>
-  <si>
-    <t>Bondgenootschap</t>
-  </si>
-  <si>
-    <t>Allies</t>
-  </si>
-  <si>
-    <t>Bondgenoten</t>
-  </si>
-  <si>
-    <t>Allied</t>
-  </si>
-  <si>
-    <t>Verbonden</t>
-  </si>
-  <si>
-    <t>Concubine</t>
-  </si>
-  <si>
-    <t>Bijvrouw</t>
-  </si>
-  <si>
-    <t>Heb zelf de context hiervan ietwat aangepast. Gezien het de Baanderheren waren die moesten worden opgeroepen en zij kwamen dan met de Heervaarders</t>
-  </si>
-  <si>
-    <t>Kolom1</t>
+    <t>Pretender</t>
+  </si>
+  <si>
+    <t>Bedrieger</t>
+  </si>
+  <si>
+    <t>Pretenderen: doen alsof</t>
+  </si>
+  <si>
+    <t>Laudabiliter</t>
+  </si>
+  <si>
+    <t>in regel 295: "Laudabiliter Conquest" Laudabiliter was a bull issued in 1155 by Pope Adrian IV</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Laudabiliter of </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lofwaardig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1031,6 +1042,14 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1093,18 +1112,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:F151" totalsRowShown="0">
-  <autoFilter ref="A1:F151" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:E151" totalsRowShown="0">
+  <autoFilter ref="A1:E151" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E123">
     <sortCondition ref="A1:A151"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BEFD245A-2A28-400B-A9E5-FE2EBA62AFD7}" name="Engelse term"/>
     <tableColumn id="2" xr3:uid="{C7771ADF-0301-48C6-AC98-3DC03BE980CB}" name="Nederlandse term"/>
     <tableColumn id="3" xr3:uid="{A302C31A-3B76-40AD-A403-4361CBAE6E9E}" name="uitleg"/>
     <tableColumn id="4" xr3:uid="{CBD3F489-A211-4D84-9CF0-2CB3C4563807}" name="Toegevoegd" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{39B66416-6FFC-4032-B8EE-7E2ABF7441BF}" name="Kolom"/>
-    <tableColumn id="6" xr3:uid="{25B7B3D6-5C40-4EAD-9C08-67B62FA7B971}" name="Kolom1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1373,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,7 +1405,7 @@
     <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1403,11 +1421,8 @@
       <c r="E1" t="s">
         <v>243</v>
       </c>
-      <c r="F1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1418,7 +1433,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>238</v>
       </c>
@@ -1432,7 +1447,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -1446,7 +1461,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1454,7 +1469,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>159</v>
       </c>
@@ -1462,7 +1477,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -1476,7 +1491,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -1487,7 +1502,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1495,7 +1510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -1506,7 +1521,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -1520,7 +1535,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>201</v>
       </c>
@@ -1531,7 +1546,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -1539,7 +1554,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>166</v>
       </c>
@@ -1550,7 +1565,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>196</v>
       </c>
@@ -1564,7 +1579,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>139</v>
       </c>
@@ -2240,7 +2255,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>227</v>
       </c>
@@ -2251,7 +2266,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>180</v>
       </c>
@@ -2265,7 +2280,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>101</v>
       </c>
@@ -2279,7 +2294,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>234</v>
       </c>
@@ -2290,7 +2305,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -2298,7 +2313,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>165</v>
       </c>
@@ -2309,7 +2324,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>64</v>
       </c>
@@ -2317,7 +2332,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>39</v>
       </c>
@@ -2331,7 +2346,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>134</v>
       </c>
@@ -2342,7 +2357,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>237</v>
       </c>
@@ -2356,7 +2371,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -2370,7 +2385,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>264</v>
       </c>
@@ -2383,11 +2398,8 @@
       <c r="E92" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F92" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>42</v>
       </c>
@@ -2398,7 +2410,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>66</v>
       </c>
@@ -2406,7 +2418,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>106</v>
       </c>
@@ -2417,7 +2429,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>108</v>
       </c>
@@ -2753,47 +2765,31 @@
       <c r="B124" t="s">
         <v>295</v>
       </c>
+      <c r="C124" t="s">
+        <v>296</v>
+      </c>
       <c r="D124" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B125" t="s">
-        <v>297</v>
+        <v>299</v>
+      </c>
+      <c r="C125" t="s">
+        <v>298</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>298</v>
-      </c>
-      <c r="B126" t="s">
-        <v>299</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>300</v>
-      </c>
-      <c r="B127" t="s">
-        <v>301</v>
-      </c>
-      <c r="D127" s="1" t="s">
         <v>250</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/DLP woordenlijst.xlsx
+++ b/DLP woordenlijst.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B57DBEA-F95F-46ED-A3A4-2F4F90E93B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC461C1-309E-411B-9ECD-BA28D0A5D8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31320" yWindow="2400" windowWidth="17595" windowHeight="17430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22530" yWindow="2400" windowWidth="26385" windowHeight="17430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="304">
   <si>
     <t>Engelse term</t>
   </si>
@@ -1020,6 +1020,18 @@
       </rPr>
       <t>?</t>
     </r>
+  </si>
+  <si>
+    <t>Vassalize</t>
+  </si>
+  <si>
+    <t>“You vassalize all titles” kan vertaald worden als “Je onderwerpt alle titels”. Dit betekent dat je alle heerschappijstitels in bezit neemt en de eigenaren ervan tot je vazallen maakt. Als je bijvoorbeeld een claim hebt op een hertogdom of hoger en je drukt deze claim af, zul je alle primaire titels die deel uitmaken van het grondgebied waarop je de oorlog hebt verklaard, onderwerpen. Het is belangrijk om te onthouden dat je zelf niet noodzakelijk het land krijgt, maar wel de vazallenstatus van de eigenaren van die titels.</t>
+  </si>
+  <si>
+    <t>Raid</t>
+  </si>
+  <si>
+    <t>Beroving / Rooftocht / Plundering</t>
   </si>
 </sst>
 </file>
@@ -1114,8 +1126,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}" name="Tabel1" displayName="Tabel1" ref="A1:E151" totalsRowShown="0">
   <autoFilter ref="A1:E151" xr:uid="{620CAB14-0AE3-4DC1-ABD7-5524AAC7191E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E123">
-    <sortCondition ref="A1:A151"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E128">
+    <sortCondition descending="1" ref="D1:D151"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{BEFD245A-2A28-400B-A9E5-FE2EBA62AFD7}" name="Engelse term"/>
@@ -1391,11 +1403,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1424,24 +1434,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>259</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C3" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>250</v>
@@ -1449,210 +1459,228 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>255</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>252</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
+        <v>251</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>175</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" t="s">
-        <v>176</v>
+        <v>249</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>234</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>235</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>256</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>257</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
+        <v>261</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>175</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>232</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>253</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>233</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>254</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>173</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="B15" t="s">
-        <v>219</v>
-      </c>
-      <c r="C15" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>294</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>295</v>
+      </c>
+      <c r="C16" t="s">
+        <v>296</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>173</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>297</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>299</v>
+      </c>
+      <c r="C17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>300</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>301</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>173</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>247</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>272</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>228</v>
-      </c>
-      <c r="B22" t="s">
-        <v>229</v>
+        <v>210</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>245</v>
@@ -1660,272 +1688,347 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>205</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>206</v>
+        <v>223</v>
+      </c>
+      <c r="B24" t="s">
+        <v>246</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>286</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>288</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>207</v>
+        <v>289</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>290</v>
       </c>
       <c r="C26" t="s">
-        <v>209</v>
+        <v>291</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>216</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>220</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>213</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" t="s">
-        <v>174</v>
+        <v>205</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>207</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="C32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" t="s">
+        <v>282</v>
+      </c>
+      <c r="C35" t="s">
+        <v>283</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" t="s">
+        <v>192</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>62</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B40" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>161</v>
-      </c>
-      <c r="B37" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>155</v>
-      </c>
-      <c r="B38" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>211</v>
-      </c>
-      <c r="B39" t="s">
-        <v>293</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>242</v>
-      </c>
-      <c r="B40" t="s">
-        <v>263</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="B42" t="s">
-        <v>248</v>
+        <v>284</v>
+      </c>
+      <c r="C42" t="s">
+        <v>285</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="E42" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C43" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" t="s">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="C47" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>164</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>184</v>
+      </c>
+      <c r="C49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>173</v>
@@ -1933,10 +2036,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>82</v>
+      </c>
+      <c r="C51" t="s">
+        <v>83</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>177</v>
@@ -1944,68 +2050,71 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>85</v>
+      </c>
+      <c r="C52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s">
-        <v>284</v>
-      </c>
-      <c r="C53" t="s">
-        <v>285</v>
+        <v>130</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E53" t="s">
-        <v>271</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>236</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>255</v>
+        <v>91</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="B55" t="s">
-        <v>198</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>218</v>
+        <v>132</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>217</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>273</v>
+        <v>92</v>
+      </c>
+      <c r="B56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>98</v>
+      </c>
+      <c r="C57" t="s">
+        <v>83</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>177</v>
@@ -2013,777 +2122,697 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
-        <v>30</v>
+        <v>99</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>231</v>
+        <v>101</v>
       </c>
       <c r="B59" t="s">
-        <v>252</v>
+        <v>102</v>
+      </c>
+      <c r="C59" t="s">
+        <v>103</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>204</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>105</v>
+      </c>
+      <c r="C61" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>193</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C62" t="s">
-        <v>194</v>
+        <v>106</v>
+      </c>
+      <c r="B62" t="s">
+        <v>107</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>109</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>230</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s">
-        <v>251</v>
+        <v>278</v>
+      </c>
+      <c r="C64" t="s">
+        <v>279</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="E64" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="B66" t="s">
-        <v>169</v>
+        <v>113</v>
+      </c>
+      <c r="C66" t="s">
+        <v>280</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="B67" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="C67" t="s">
+        <v>203</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="B68" t="s">
-        <v>272</v>
+        <v>121</v>
+      </c>
+      <c r="C68" t="s">
+        <v>122</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B70" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>274</v>
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
+        <v>70</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" t="s">
+        <v>274</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>50</v>
+      </c>
+      <c r="B76" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>135</v>
+      </c>
+      <c r="B81" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>60</v>
+      </c>
+      <c r="B90" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>75</v>
+      </c>
+      <c r="B94" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>161</v>
+      </c>
+      <c r="B95" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>155</v>
+      </c>
+      <c r="B96" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>79</v>
+      </c>
+      <c r="B97" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>141</v>
+      </c>
+      <c r="B98" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>86</v>
+      </c>
+      <c r="B99" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>149</v>
+      </c>
+      <c r="B100" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>143</v>
+      </c>
+      <c r="B101" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>217</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>37</v>
+      </c>
+      <c r="B106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" t="s">
+        <v>224</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>145</v>
+      </c>
+      <c r="B108" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>151</v>
+      </c>
+      <c r="B109" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>35</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B110" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>48</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B111" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>14</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B112" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>97</v>
-      </c>
-      <c r="B76" t="s">
-        <v>98</v>
-      </c>
-      <c r="C76" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>64</v>
+      </c>
+      <c r="B114" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>39</v>
+      </c>
+      <c r="B115" t="s">
+        <v>275</v>
+      </c>
+      <c r="C115" t="s">
+        <v>276</v>
+      </c>
+      <c r="E115" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>264</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C116" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>42</v>
+      </c>
+      <c r="B117" t="s">
+        <v>43</v>
+      </c>
+      <c r="C117" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>66</v>
+      </c>
+      <c r="B118" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>22</v>
+      </c>
+      <c r="B119" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>178</v>
+      </c>
+      <c r="B120" t="s">
+        <v>138</v>
+      </c>
+      <c r="C120" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>53</v>
+      </c>
+      <c r="B121" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>114</v>
+      </c>
+      <c r="B122" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>116</v>
+      </c>
+      <c r="B123" t="s">
+        <v>117</v>
+      </c>
+      <c r="C123" t="s">
         <v>83</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>187</v>
-      </c>
-      <c r="B77" t="s">
-        <v>189</v>
-      </c>
-      <c r="C77" t="s">
-        <v>188</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>190</v>
-      </c>
-      <c r="B78" t="s">
-        <v>191</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>99</v>
-      </c>
-      <c r="B79" t="s">
-        <v>99</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>210</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>227</v>
-      </c>
-      <c r="B81" t="s">
-        <v>249</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>180</v>
-      </c>
-      <c r="B82" t="s">
-        <v>181</v>
-      </c>
-      <c r="C82" t="s">
-        <v>182</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>101</v>
-      </c>
-      <c r="B83" t="s">
-        <v>102</v>
-      </c>
-      <c r="C83" t="s">
-        <v>103</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>234</v>
-      </c>
-      <c r="B84" t="s">
-        <v>235</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>20</v>
-      </c>
-      <c r="B85" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>165</v>
-      </c>
-      <c r="B86" t="s">
-        <v>164</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>64</v>
-      </c>
-      <c r="B87" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>39</v>
-      </c>
-      <c r="B88" t="s">
-        <v>275</v>
-      </c>
-      <c r="C88" t="s">
-        <v>276</v>
-      </c>
-      <c r="E88" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>134</v>
-      </c>
-      <c r="B89" t="s">
-        <v>204</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>237</v>
-      </c>
-      <c r="B90" t="s">
-        <v>256</v>
-      </c>
-      <c r="C90" t="s">
-        <v>257</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>104</v>
-      </c>
-      <c r="B91" t="s">
-        <v>105</v>
-      </c>
-      <c r="C91" t="s">
-        <v>83</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>264</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C92" t="s">
-        <v>13</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>42</v>
-      </c>
-      <c r="B93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C93" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>66</v>
-      </c>
-      <c r="B94" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>106</v>
-      </c>
-      <c r="B95" t="s">
-        <v>107</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>108</v>
-      </c>
-      <c r="B96" t="s">
-        <v>109</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>240</v>
-      </c>
-      <c r="B97" t="s">
-        <v>261</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>22</v>
-      </c>
-      <c r="B98" t="s">
-        <v>23</v>
-      </c>
-      <c r="C98" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>133</v>
-      </c>
-      <c r="B99" t="s">
-        <v>278</v>
-      </c>
-      <c r="C99" t="s">
-        <v>279</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E99" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>110</v>
-      </c>
-      <c r="B100" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" t="s">
-        <v>83</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>112</v>
-      </c>
-      <c r="B101" t="s">
-        <v>113</v>
-      </c>
-      <c r="C101" t="s">
-        <v>280</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>183</v>
-      </c>
-      <c r="B102" t="s">
-        <v>184</v>
-      </c>
-      <c r="C102" t="s">
-        <v>185</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E102" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>178</v>
-      </c>
-      <c r="B103" t="s">
-        <v>138</v>
-      </c>
-      <c r="C103" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>53</v>
-      </c>
-      <c r="B104" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>114</v>
-      </c>
-      <c r="B105" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>116</v>
-      </c>
-      <c r="B106" t="s">
-        <v>117</v>
-      </c>
-      <c r="C106" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>200</v>
-      </c>
-      <c r="B107" t="s">
-        <v>282</v>
-      </c>
-      <c r="C107" t="s">
-        <v>283</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E107" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>31</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B124" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>222</v>
-      </c>
-      <c r="B109" t="s">
-        <v>244</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>223</v>
-      </c>
-      <c r="B110" t="s">
-        <v>246</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>241</v>
-      </c>
-      <c r="B111" t="s">
-        <v>262</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>286</v>
-      </c>
-      <c r="B112" t="s">
-        <v>288</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>232</v>
-      </c>
-      <c r="B113" t="s">
-        <v>253</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>233</v>
-      </c>
-      <c r="B114" t="s">
-        <v>254</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>57</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B125" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>157</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B126" t="s">
         <v>158</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C126" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>289</v>
-      </c>
-      <c r="B117" t="s">
-        <v>290</v>
-      </c>
-      <c r="C117" t="s">
-        <v>291</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118" t="s">
-        <v>119</v>
-      </c>
-      <c r="C118" t="s">
-        <v>203</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>239</v>
-      </c>
-      <c r="B119" t="s">
-        <v>260</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>120</v>
-      </c>
-      <c r="B120" t="s">
-        <v>121</v>
-      </c>
-      <c r="C120" t="s">
-        <v>122</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>170</v>
-      </c>
-      <c r="B121" t="s">
-        <v>171</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>123</v>
-      </c>
-      <c r="B122" t="s">
-        <v>124</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>125</v>
-      </c>
-      <c r="B123" t="s">
-        <v>126</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>294</v>
-      </c>
-      <c r="B124" t="s">
-        <v>295</v>
-      </c>
-      <c r="C124" t="s">
-        <v>296</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>297</v>
-      </c>
-      <c r="B125" t="s">
-        <v>299</v>
-      </c>
-      <c r="C125" t="s">
-        <v>298</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>250</v>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>302</v>
+      </c>
+      <c r="B127" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
